--- a/Casa.xlsx
+++ b/Casa.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -651,12 +651,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
